--- a/testdata/TestSummaryReport.xlsx
+++ b/testdata/TestSummaryReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="24">
   <si>
     <t>S.No</t>
   </si>
@@ -85,6 +85,27 @@
   </si>
   <si>
     <t>23/01/2022</t>
+  </si>
+  <si>
+    <t>08/02/2022</t>
+  </si>
+  <si>
+    <t>09/02/2022</t>
+  </si>
+  <si>
+    <t>11/02/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_227815_TC_02</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_164745_TC_08</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_164757_TC_06</t>
+  </si>
+  <si>
+    <t>16/02/2022</t>
   </si>
 </sst>
 </file>
@@ -511,10 +532,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -584,6 +605,48 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/testdata/TestSummaryReport.xlsx
+++ b/testdata/TestSummaryReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -106,6 +106,54 @@
   </si>
   <si>
     <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>17/02/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_227820_TC_03</t>
+  </si>
+  <si>
+    <t>18/02/2022</t>
+  </si>
+  <si>
+    <t>21/02/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_184671_TC_013</t>
+  </si>
+  <si>
+    <t>22/02/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_227904_TC_012</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_232246_TC_014</t>
+  </si>
+  <si>
+    <t>23/02/2022</t>
+  </si>
+  <si>
+    <t>24/02/2022</t>
+  </si>
+  <si>
+    <t>25/02/2022</t>
+  </si>
+  <si>
+    <t>28/02/2022</t>
+  </si>
+  <si>
+    <t>24/03/2022</t>
+  </si>
+  <si>
+    <t>dealAnalysis_Finance_227824_TC_01</t>
+  </si>
+  <si>
+    <t>25/03/2022</t>
+  </si>
+  <si>
+    <t>31/03/2022</t>
   </si>
 </sst>
 </file>
@@ -532,7 +580,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -616,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -644,9 +692,79 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>

--- a/testdata/TestSummaryReport.xlsx
+++ b/testdata/TestSummaryReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="42">
   <si>
     <t>S.No</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>31/03/2022</t>
+  </si>
+  <si>
+    <t>dealAnalysis_Finance_231310_TC_02</t>
+  </si>
+  <si>
+    <t>25/04/2022</t>
   </si>
 </sst>
 </file>
@@ -768,6 +774,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/testdata/TestSummaryReport.xlsx
+++ b/testdata/TestSummaryReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="49">
   <si>
     <t>S.No</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>25/04/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_262997_TC_01</t>
+  </si>
+  <si>
+    <t>24/05/2022</t>
+  </si>
+  <si>
+    <t>25/05/2022</t>
+  </si>
+  <si>
+    <t>dealAnalysis_Pricing_263023_TC_01</t>
+  </si>
+  <si>
+    <t>26/05/2022</t>
+  </si>
+  <si>
+    <t>27/05/2022</t>
+  </si>
+  <si>
+    <t>dealAnalysis_Pricing_263025_TC_03</t>
   </si>
 </sst>
 </file>
@@ -788,6 +809,48 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/testdata/TestSummaryReport.xlsx
+++ b/testdata/TestSummaryReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="61">
   <si>
     <t>S.No</t>
   </si>
@@ -181,6 +181,42 @@
   </si>
   <si>
     <t>dealAnalysis_Pricing_263025_TC_03</t>
+  </si>
+  <si>
+    <t>dealAnalysis_Pricing_263024_TC_02</t>
+  </si>
+  <si>
+    <t>01/06/2022</t>
+  </si>
+  <si>
+    <t>dealAnalysis_Finance_263008_TC_01</t>
+  </si>
+  <si>
+    <t>dealAnalysis_Finance_263010_TC_02</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_262999_TC_02</t>
+  </si>
+  <si>
+    <t>02/06/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_263002_TC_04</t>
+  </si>
+  <si>
+    <t>03/06/2022</t>
+  </si>
+  <si>
+    <t>06/06/2022</t>
+  </si>
+  <si>
+    <t>07/06/2022</t>
+  </si>
+  <si>
+    <t>08/06/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_263003_TC_05</t>
   </si>
 </sst>
 </file>
@@ -817,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -848,6 +884,90 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
         <v>11</v>
       </c>
     </row>

--- a/testdata/TestSummaryReport.xlsx
+++ b/testdata/TestSummaryReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="64">
   <si>
     <t>S.No</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>quote_ProposalSetup_263003_TC_05</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_263004_TC_06</t>
+  </si>
+  <si>
+    <t>09/06/2022</t>
+  </si>
+  <si>
+    <t>quote_ProposalSetup_263001_TC_03</t>
   </si>
 </sst>
 </file>
@@ -971,6 +980,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/testdata/TestSummaryReport.xlsx
+++ b/testdata/TestSummaryReport.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="79">
   <si>
     <t>S.No</t>
   </si>
@@ -226,6 +226,51 @@
   </si>
   <si>
     <t>quote_ProposalSetup_263001_TC_03</t>
+  </si>
+  <si>
+    <t>Opportunities_262996_TC_10</t>
+  </si>
+  <si>
+    <t>10/06/2022</t>
+  </si>
+  <si>
+    <t>Opportunities_262996_TC_21</t>
+  </si>
+  <si>
+    <t>Opportunities_227896_TC_10</t>
+  </si>
+  <si>
+    <t>13/06/2022</t>
+  </si>
+  <si>
+    <t>Opportunities_263383_TC_11</t>
+  </si>
+  <si>
+    <t>quote_GenerateProposal_263028_TC_01</t>
+  </si>
+  <si>
+    <t>14/06/2022</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
+    <t>quote_GenerateProposal_263029_TC_02</t>
+  </si>
+  <si>
+    <t>16/06/2022</t>
+  </si>
+  <si>
+    <t>quote_GenerateProposal_263436_TC_03</t>
+  </si>
+  <si>
+    <t>17/06/2022</t>
+  </si>
+  <si>
+    <t>Opportunities_227841_TC_01</t>
+  </si>
+  <si>
+    <t>23/06/2022</t>
   </si>
 </sst>
 </file>
@@ -862,10 +907,10 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1005,6 +1050,118 @@
         <v>62</v>
       </c>
       <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
         <v>8</v>
       </c>
     </row>
